--- a/Batch5_DailyStatus (1).xlsx
+++ b/Batch5_DailyStatus (1).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Aishwarya" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="827" uniqueCount="36">
   <si>
     <t xml:space="preserve">          CONSTRUCTION ERP IMPLEMENTATION</t>
   </si>
@@ -119,6 +119,18 @@
   <si>
     <t>Absent</t>
   </si>
+  <si>
+    <t>Review</t>
+  </si>
+  <si>
+    <t>Sports Day</t>
+  </si>
+  <si>
+    <t>Holiday</t>
+  </si>
+  <si>
+    <t>Exam</t>
+  </si>
 </sst>
 </file>
 
@@ -158,7 +170,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -201,6 +213,18 @@
         <bgColor rgb="FFFF0000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor rgb="FFFF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FFFF0000"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -214,7 +238,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -226,6 +250,9 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -588,10 +615,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F45"/>
+  <dimension ref="A1:F55"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43:K45"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="F54" sqref="F54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1467,6 +1494,190 @@
         <v>18</v>
       </c>
     </row>
+    <row r="46" spans="1:6">
+      <c r="A46">
+        <v>43</v>
+      </c>
+      <c r="B46" t="s">
+        <v>7</v>
+      </c>
+      <c r="C46" s="3">
+        <v>43158</v>
+      </c>
+      <c r="D46" t="s">
+        <v>8</v>
+      </c>
+      <c r="E46" t="s">
+        <v>32</v>
+      </c>
+      <c r="F46" s="12"/>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47">
+        <v>44</v>
+      </c>
+      <c r="B47" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47" s="3">
+        <v>43159</v>
+      </c>
+      <c r="D47" t="s">
+        <v>8</v>
+      </c>
+      <c r="E47" t="s">
+        <v>32</v>
+      </c>
+      <c r="F47" s="13"/>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48">
+        <v>45</v>
+      </c>
+      <c r="B48" t="s">
+        <v>7</v>
+      </c>
+      <c r="C48" s="3">
+        <v>43160</v>
+      </c>
+      <c r="D48" t="s">
+        <v>8</v>
+      </c>
+      <c r="E48" t="s">
+        <v>30</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49">
+        <v>46</v>
+      </c>
+      <c r="B49" t="s">
+        <v>7</v>
+      </c>
+      <c r="C49" s="3">
+        <v>43161</v>
+      </c>
+      <c r="D49" t="s">
+        <v>8</v>
+      </c>
+      <c r="E49" t="s">
+        <v>33</v>
+      </c>
+      <c r="F49" s="11"/>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50">
+        <v>47</v>
+      </c>
+      <c r="B50" t="s">
+        <v>7</v>
+      </c>
+      <c r="C50" s="3">
+        <v>43162</v>
+      </c>
+      <c r="D50" t="s">
+        <v>8</v>
+      </c>
+      <c r="E50" t="s">
+        <v>34</v>
+      </c>
+      <c r="F50" s="13"/>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51">
+        <v>48</v>
+      </c>
+      <c r="B51" t="s">
+        <v>7</v>
+      </c>
+      <c r="C51" s="3">
+        <v>43163</v>
+      </c>
+      <c r="D51" t="s">
+        <v>8</v>
+      </c>
+      <c r="E51" t="s">
+        <v>34</v>
+      </c>
+      <c r="F51" s="13"/>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52">
+        <v>49</v>
+      </c>
+      <c r="B52" t="s">
+        <v>7</v>
+      </c>
+      <c r="C52" s="3">
+        <v>43164</v>
+      </c>
+      <c r="D52" t="s">
+        <v>8</v>
+      </c>
+      <c r="E52" t="s">
+        <v>35</v>
+      </c>
+      <c r="F52" s="13"/>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53">
+        <v>50</v>
+      </c>
+      <c r="B53" t="s">
+        <v>7</v>
+      </c>
+      <c r="C53" s="3">
+        <v>43165</v>
+      </c>
+      <c r="D53" t="s">
+        <v>8</v>
+      </c>
+      <c r="E53" t="s">
+        <v>35</v>
+      </c>
+      <c r="F53" s="13"/>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54">
+        <v>51</v>
+      </c>
+      <c r="B54" t="s">
+        <v>7</v>
+      </c>
+      <c r="C54" s="3">
+        <v>43166</v>
+      </c>
+      <c r="D54" t="s">
+        <v>8</v>
+      </c>
+      <c r="E54" t="s">
+        <v>35</v>
+      </c>
+      <c r="F54" s="13"/>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55">
+        <v>52</v>
+      </c>
+      <c r="B55" t="s">
+        <v>7</v>
+      </c>
+      <c r="C55" s="3">
+        <v>43167</v>
+      </c>
+      <c r="D55" t="s">
+        <v>8</v>
+      </c>
+      <c r="E55" t="s">
+        <v>30</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -1475,10 +1686,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F45"/>
+  <dimension ref="A1:F55"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43:F45"/>
+    <sheetView topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2357,6 +2568,190 @@
         <v>18</v>
       </c>
     </row>
+    <row r="46" spans="1:6">
+      <c r="A46">
+        <v>43</v>
+      </c>
+      <c r="B46" t="s">
+        <v>20</v>
+      </c>
+      <c r="C46" s="3">
+        <v>43158</v>
+      </c>
+      <c r="D46" t="s">
+        <v>8</v>
+      </c>
+      <c r="E46" t="s">
+        <v>32</v>
+      </c>
+      <c r="F46" s="12"/>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47">
+        <v>44</v>
+      </c>
+      <c r="B47" t="s">
+        <v>20</v>
+      </c>
+      <c r="C47" s="3">
+        <v>43159</v>
+      </c>
+      <c r="D47" t="s">
+        <v>8</v>
+      </c>
+      <c r="E47" t="s">
+        <v>32</v>
+      </c>
+      <c r="F47" s="13"/>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48">
+        <v>45</v>
+      </c>
+      <c r="B48" t="s">
+        <v>20</v>
+      </c>
+      <c r="C48" s="3">
+        <v>43160</v>
+      </c>
+      <c r="D48" t="s">
+        <v>8</v>
+      </c>
+      <c r="E48" t="s">
+        <v>30</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49">
+        <v>46</v>
+      </c>
+      <c r="B49" t="s">
+        <v>20</v>
+      </c>
+      <c r="C49" s="3">
+        <v>43161</v>
+      </c>
+      <c r="D49" t="s">
+        <v>8</v>
+      </c>
+      <c r="E49" t="s">
+        <v>33</v>
+      </c>
+      <c r="F49" s="11"/>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50">
+        <v>47</v>
+      </c>
+      <c r="B50" t="s">
+        <v>20</v>
+      </c>
+      <c r="C50" s="3">
+        <v>43162</v>
+      </c>
+      <c r="D50" t="s">
+        <v>8</v>
+      </c>
+      <c r="E50" t="s">
+        <v>34</v>
+      </c>
+      <c r="F50" s="11"/>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51">
+        <v>48</v>
+      </c>
+      <c r="B51" t="s">
+        <v>20</v>
+      </c>
+      <c r="C51" s="3">
+        <v>43163</v>
+      </c>
+      <c r="D51" t="s">
+        <v>8</v>
+      </c>
+      <c r="E51" t="s">
+        <v>34</v>
+      </c>
+      <c r="F51" s="11"/>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52">
+        <v>49</v>
+      </c>
+      <c r="B52" t="s">
+        <v>20</v>
+      </c>
+      <c r="C52" s="3">
+        <v>43164</v>
+      </c>
+      <c r="D52" t="s">
+        <v>8</v>
+      </c>
+      <c r="E52" t="s">
+        <v>35</v>
+      </c>
+      <c r="F52" s="11"/>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53">
+        <v>50</v>
+      </c>
+      <c r="B53" t="s">
+        <v>20</v>
+      </c>
+      <c r="C53" s="3">
+        <v>43165</v>
+      </c>
+      <c r="D53" t="s">
+        <v>8</v>
+      </c>
+      <c r="E53" t="s">
+        <v>35</v>
+      </c>
+      <c r="F53" s="11"/>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54">
+        <v>51</v>
+      </c>
+      <c r="B54" t="s">
+        <v>20</v>
+      </c>
+      <c r="C54" s="3">
+        <v>43166</v>
+      </c>
+      <c r="D54" t="s">
+        <v>8</v>
+      </c>
+      <c r="E54" t="s">
+        <v>35</v>
+      </c>
+      <c r="F54" s="11"/>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55">
+        <v>52</v>
+      </c>
+      <c r="B55" t="s">
+        <v>20</v>
+      </c>
+      <c r="C55" s="3">
+        <v>43167</v>
+      </c>
+      <c r="D55" t="s">
+        <v>8</v>
+      </c>
+      <c r="E55" t="s">
+        <v>30</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -2365,10 +2760,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F45"/>
+  <dimension ref="A1:F55"/>
   <sheetViews>
     <sheetView topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42:B45"/>
+      <selection activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3247,6 +3642,190 @@
         <v>18</v>
       </c>
     </row>
+    <row r="46" spans="1:6">
+      <c r="A46">
+        <v>43</v>
+      </c>
+      <c r="B46" t="s">
+        <v>21</v>
+      </c>
+      <c r="C46" s="3">
+        <v>43158</v>
+      </c>
+      <c r="D46" t="s">
+        <v>8</v>
+      </c>
+      <c r="E46" t="s">
+        <v>32</v>
+      </c>
+      <c r="F46" s="12"/>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47">
+        <v>44</v>
+      </c>
+      <c r="B47" t="s">
+        <v>21</v>
+      </c>
+      <c r="C47" s="3">
+        <v>43159</v>
+      </c>
+      <c r="D47" t="s">
+        <v>8</v>
+      </c>
+      <c r="E47" t="s">
+        <v>32</v>
+      </c>
+      <c r="F47" s="13"/>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48">
+        <v>45</v>
+      </c>
+      <c r="B48" t="s">
+        <v>21</v>
+      </c>
+      <c r="C48" s="3">
+        <v>43160</v>
+      </c>
+      <c r="D48" t="s">
+        <v>8</v>
+      </c>
+      <c r="E48" t="s">
+        <v>30</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49">
+        <v>46</v>
+      </c>
+      <c r="B49" t="s">
+        <v>21</v>
+      </c>
+      <c r="C49" s="3">
+        <v>43161</v>
+      </c>
+      <c r="D49" t="s">
+        <v>8</v>
+      </c>
+      <c r="E49" t="s">
+        <v>33</v>
+      </c>
+      <c r="F49" s="11"/>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50">
+        <v>47</v>
+      </c>
+      <c r="B50" t="s">
+        <v>21</v>
+      </c>
+      <c r="C50" s="3">
+        <v>43162</v>
+      </c>
+      <c r="D50" t="s">
+        <v>8</v>
+      </c>
+      <c r="E50" t="s">
+        <v>34</v>
+      </c>
+      <c r="F50" s="11"/>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51">
+        <v>48</v>
+      </c>
+      <c r="B51" t="s">
+        <v>21</v>
+      </c>
+      <c r="C51" s="3">
+        <v>43163</v>
+      </c>
+      <c r="D51" t="s">
+        <v>8</v>
+      </c>
+      <c r="E51" t="s">
+        <v>34</v>
+      </c>
+      <c r="F51" s="11"/>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52">
+        <v>49</v>
+      </c>
+      <c r="B52" t="s">
+        <v>21</v>
+      </c>
+      <c r="C52" s="3">
+        <v>43164</v>
+      </c>
+      <c r="D52" t="s">
+        <v>8</v>
+      </c>
+      <c r="E52" t="s">
+        <v>35</v>
+      </c>
+      <c r="F52" s="11"/>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53">
+        <v>50</v>
+      </c>
+      <c r="B53" t="s">
+        <v>21</v>
+      </c>
+      <c r="C53" s="3">
+        <v>43165</v>
+      </c>
+      <c r="D53" t="s">
+        <v>8</v>
+      </c>
+      <c r="E53" t="s">
+        <v>35</v>
+      </c>
+      <c r="F53" s="11"/>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54">
+        <v>51</v>
+      </c>
+      <c r="B54" t="s">
+        <v>21</v>
+      </c>
+      <c r="C54" s="3">
+        <v>43166</v>
+      </c>
+      <c r="D54" t="s">
+        <v>8</v>
+      </c>
+      <c r="E54" t="s">
+        <v>35</v>
+      </c>
+      <c r="F54" s="11"/>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55">
+        <v>52</v>
+      </c>
+      <c r="B55" t="s">
+        <v>21</v>
+      </c>
+      <c r="C55" s="3">
+        <v>43167</v>
+      </c>
+      <c r="D55" t="s">
+        <v>8</v>
+      </c>
+      <c r="E55" t="s">
+        <v>30</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -3255,10 +3834,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F45"/>
+  <dimension ref="A1:F55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42:B45"/>
+    <sheetView topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4137,8 +4716,192 @@
         <v>18</v>
       </c>
     </row>
+    <row r="46" spans="1:6">
+      <c r="A46">
+        <v>43</v>
+      </c>
+      <c r="B46" t="s">
+        <v>22</v>
+      </c>
+      <c r="C46" s="3">
+        <v>43158</v>
+      </c>
+      <c r="D46" t="s">
+        <v>8</v>
+      </c>
+      <c r="E46" t="s">
+        <v>32</v>
+      </c>
+      <c r="F46" s="12"/>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47">
+        <v>44</v>
+      </c>
+      <c r="B47" t="s">
+        <v>22</v>
+      </c>
+      <c r="C47" s="3">
+        <v>43159</v>
+      </c>
+      <c r="D47" t="s">
+        <v>8</v>
+      </c>
+      <c r="E47" t="s">
+        <v>32</v>
+      </c>
+      <c r="F47" s="13"/>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48">
+        <v>45</v>
+      </c>
+      <c r="B48" t="s">
+        <v>22</v>
+      </c>
+      <c r="C48" s="3">
+        <v>43160</v>
+      </c>
+      <c r="D48" t="s">
+        <v>8</v>
+      </c>
+      <c r="E48" t="s">
+        <v>30</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49">
+        <v>46</v>
+      </c>
+      <c r="B49" t="s">
+        <v>22</v>
+      </c>
+      <c r="C49" s="3">
+        <v>43161</v>
+      </c>
+      <c r="D49" t="s">
+        <v>8</v>
+      </c>
+      <c r="E49" t="s">
+        <v>33</v>
+      </c>
+      <c r="F49" s="11"/>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50">
+        <v>47</v>
+      </c>
+      <c r="B50" t="s">
+        <v>22</v>
+      </c>
+      <c r="C50" s="3">
+        <v>43162</v>
+      </c>
+      <c r="D50" t="s">
+        <v>8</v>
+      </c>
+      <c r="E50" t="s">
+        <v>34</v>
+      </c>
+      <c r="F50" s="11"/>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51">
+        <v>48</v>
+      </c>
+      <c r="B51" t="s">
+        <v>22</v>
+      </c>
+      <c r="C51" s="3">
+        <v>43163</v>
+      </c>
+      <c r="D51" t="s">
+        <v>8</v>
+      </c>
+      <c r="E51" t="s">
+        <v>34</v>
+      </c>
+      <c r="F51" s="11"/>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52">
+        <v>49</v>
+      </c>
+      <c r="B52" t="s">
+        <v>22</v>
+      </c>
+      <c r="C52" s="3">
+        <v>43164</v>
+      </c>
+      <c r="D52" t="s">
+        <v>8</v>
+      </c>
+      <c r="E52" t="s">
+        <v>35</v>
+      </c>
+      <c r="F52" s="11"/>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53">
+        <v>50</v>
+      </c>
+      <c r="B53" t="s">
+        <v>22</v>
+      </c>
+      <c r="C53" s="3">
+        <v>43165</v>
+      </c>
+      <c r="D53" t="s">
+        <v>8</v>
+      </c>
+      <c r="E53" t="s">
+        <v>35</v>
+      </c>
+      <c r="F53" s="11"/>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54">
+        <v>51</v>
+      </c>
+      <c r="B54" t="s">
+        <v>22</v>
+      </c>
+      <c r="C54" s="3">
+        <v>43166</v>
+      </c>
+      <c r="D54" t="s">
+        <v>8</v>
+      </c>
+      <c r="E54" t="s">
+        <v>35</v>
+      </c>
+      <c r="F54" s="11"/>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55">
+        <v>52</v>
+      </c>
+      <c r="B55" t="s">
+        <v>22</v>
+      </c>
+      <c r="C55" s="3">
+        <v>43167</v>
+      </c>
+      <c r="D55" t="s">
+        <v>8</v>
+      </c>
+      <c r="E55" t="s">
+        <v>30</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>